--- a/Array_precios_nuevo.xlsx
+++ b/Array_precios_nuevo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20115" windowHeight="7815" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20115" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja9" sheetId="9" r:id="rId1"/>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Diapo Ducos</t>
-  </si>
-  <si>
-    <t>WHEAT (not used)</t>
   </si>
   <si>
     <t>Link inac</t>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>WWHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEAT </t>
   </si>
 </sst>
 </file>
@@ -611,35 +611,35 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2542,872 +2542,800 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
-        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="PAST",Supuestos_Precios!$C$14,IF(C2="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="PAST",Supuestos_Precios!$C$14,IF(C3="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="PAST",Supuestos_Precios!$C$14,IF(C4="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="PAST",Supuestos_Precios!$C$14,IF(C5="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="PAST",Supuestos_Precios!$C$14,IF(C6="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="PAST",Supuestos_Precios!$C$14,IF(C7="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="PAST",Supuestos_Precios!$C$14,IF(C8="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="PAST",Supuestos_Precios!$C$14,IF(C9="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="PAST",Supuestos_Precios!$C$14,IF(C10="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="PAST",Supuestos_Precios!$C$14,IF(C11="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="PAST",Supuestos_Precios!$C$14,IF(C12="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="PAST",Supuestos_Precios!$C$14,IF(C13="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="PAST",Supuestos_Precios!$C$14,IF(C14="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="PAST",Supuestos_Precios!$C$14,IF(C15="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="PAST",Supuestos_Precios!$C$14,IF(C16="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="PAST",Supuestos_Precios!$C$14,IF(C17="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="PAST",Supuestos_Precios!$C$14,IF(C18="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="PAST",Supuestos_Precios!$C$14,IF(C19="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="PAST",Supuestos_Precios!$C$14,IF(C20="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="PAST",Supuestos_Precios!$C$14,IF(C21="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="PAST",Supuestos_Precios!$C$14,IF(C22="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="PAST",Supuestos_Precios!$C$14,IF(C23="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="PAST",Supuestos_Precios!$C$14,IF(C24="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="PAST",Supuestos_Precios!$C$14,IF(C25="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="PAST",Supuestos_Precios!$C$14,IF(C26="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="PAST",Supuestos_Precios!$C$14,IF(C27="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="PAST",Supuestos_Precios!$C$14,IF(C28="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="PAST",Supuestos_Precios!$C$14,IF(C29="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="PAST",Supuestos_Precios!$C$14,IF(C30="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="PAST",Supuestos_Precios!$C$14,IF(C31="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="PAST",Supuestos_Precios!$C$14,IF(C32="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="PAST",Supuestos_Precios!$C$14,IF(C33="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="PAST",Supuestos_Precios!$C$14,IF(C34="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="PAST",Supuestos_Precios!$C$14,IF(C35="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="PAST",Supuestos_Precios!$C$14,IF(C36="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="PAST",Supuestos_Precios!$C$14,IF(C37="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="PAST",Supuestos_Precios!$C$14,IF(C38="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="PAST",Supuestos_Precios!$C$14,IF(C39="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="PAST",Supuestos_Precios!$C$14,IF(C40="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="PAST",Supuestos_Precios!$C$14,IF(C41="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="PAST",Supuestos_Precios!$C$14,IF(C42="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="PAST",Supuestos_Precios!$C$14,IF(C43="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="PAST",Supuestos_Precios!$C$14,IF(C44="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="PAST",Supuestos_Precios!$C$14,IF(C45="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="PAST",Supuestos_Precios!$C$14,IF(C46="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="PAST",Supuestos_Precios!$C$14,IF(C47="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="PAST",Supuestos_Precios!$C$14,IF(C48="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="PAST",Supuestos_Precios!$C$14,IF(C49="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="PAST",Supuestos_Precios!$C$14,IF(C50="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="PAST",Supuestos_Precios!$C$14,IF(C51="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="PAST",Supuestos_Precios!$C$14,IF(C52="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="PAST",Supuestos_Precios!$C$14,IF(C53="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="PAST",Supuestos_Precios!$C$14,IF(C54="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="PAST",Supuestos_Precios!$C$14,IF(C55="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="PAST",Supuestos_Precios!$C$14,IF(C56="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="PAST",Supuestos_Precios!$C$14,IF(C57="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="PAST",Supuestos_Precios!$C$14,IF(C58="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="PAST",Supuestos_Precios!$C$14,IF(C59="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="PAST",Supuestos_Precios!$C$14,IF(C60="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="PAST",Supuestos_Precios!$C$14,IF(C61="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="PAST",Supuestos_Precios!$C$14,IF(C62="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="PAST",Supuestos_Precios!$C$14,IF(C63="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="PAST",Supuestos_Precios!$C$14,IF(C64="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="PAST",Supuestos_Precios!$C$14,IF(C65="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="PAST",Supuestos_Precios!$C$14,IF(C66="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="PAST",Supuestos_Precios!$C$14,IF(C67="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="PAST",Supuestos_Precios!$C$14,IF(C68="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="PAST",Supuestos_Precios!$C$14,IF(C69="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="PAST",Supuestos_Precios!$C$14,IF(C70="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="PAST",Supuestos_Precios!$C$14,IF(C71="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="PAST",Supuestos_Precios!$C$14,IF(C72="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="PAST",Supuestos_Precios!$C$14,IF(C73="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3420,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,28 +3367,28 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3477,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -3506,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -3532,7 +3460,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>195</v>
@@ -3541,7 +3469,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -3579,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -3617,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>69</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
@@ -3655,13 +3583,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>69</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
@@ -3693,13 +3621,13 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
       </c>
       <c r="J9" t="s">
         <v>2</v>
@@ -3723,13 +3651,13 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -3752,13 +3680,13 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
         <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
       </c>
       <c r="J11" t="s">
         <v>2</v>
@@ -3784,13 +3712,13 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
         <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
       </c>
       <c r="J12" t="s">
         <v>2</v>
@@ -3819,13 +3747,13 @@
         <v>11</v>
       </c>
       <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
       </c>
       <c r="J13" t="s">
         <v>2</v>
@@ -3857,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -3886,7 +3814,7 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -3924,7 +3852,7 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -3959,13 +3887,13 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -3991,13 +3919,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -4023,13 +3951,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -4058,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -4093,7 +4021,7 @@
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
@@ -4122,7 +4050,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -4157,7 +4085,7 @@
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -4192,7 +4120,7 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -4221,7 +4149,7 @@
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -4247,16 +4175,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F26">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" t="s">
         <v>3</v>
@@ -4285,7 +4213,7 @@
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" t="s">
         <v>3</v>
@@ -4311,13 +4239,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28">
         <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -4343,13 +4271,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
@@ -4375,16 +4303,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F30">
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
@@ -4410,13 +4338,13 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
@@ -4445,7 +4373,7 @@
         <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
@@ -4471,13 +4399,13 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
         <v>3</v>
@@ -4503,13 +4431,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34">
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -4538,7 +4466,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
@@ -4567,7 +4495,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
@@ -4596,7 +4524,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -4625,7 +4553,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
@@ -4654,7 +4582,7 @@
         <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
@@ -4683,7 +4611,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -4712,7 +4640,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -4741,13 +4669,13 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
         <v>68</v>
-      </c>
-      <c r="H42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>69</v>
       </c>
       <c r="J42" t="s">
         <v>2</v>
@@ -4770,13 +4698,13 @@
         <v>41</v>
       </c>
       <c r="G43" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
         <v>68</v>
-      </c>
-      <c r="H43" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>69</v>
       </c>
       <c r="J43" t="s">
         <v>2</v>
@@ -4799,13 +4727,13 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
         <v>68</v>
-      </c>
-      <c r="H44" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" t="s">
-        <v>69</v>
       </c>
       <c r="J44" t="s">
         <v>2</v>
@@ -4828,13 +4756,13 @@
         <v>43</v>
       </c>
       <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
         <v>68</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>69</v>
       </c>
       <c r="J45" t="s">
         <v>2</v>
@@ -4857,13 +4785,13 @@
         <v>44</v>
       </c>
       <c r="G46" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
         <v>68</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>69</v>
       </c>
       <c r="J46" t="s">
         <v>2</v>
@@ -4886,13 +4814,13 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
         <v>68</v>
-      </c>
-      <c r="H47" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>69</v>
       </c>
       <c r="J47" t="s">
         <v>2</v>
@@ -4915,13 +4843,13 @@
         <v>46</v>
       </c>
       <c r="G48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
         <v>68</v>
-      </c>
-      <c r="H48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" t="s">
-        <v>69</v>
       </c>
       <c r="J48" t="s">
         <v>5</v>
@@ -4944,13 +4872,13 @@
         <v>47</v>
       </c>
       <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
         <v>68</v>
-      </c>
-      <c r="H49" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" t="s">
-        <v>69</v>
       </c>
       <c r="J49" t="s">
         <v>5</v>
@@ -4973,7 +4901,7 @@
         <v>48</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
@@ -5002,7 +4930,7 @@
         <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
@@ -5031,7 +4959,7 @@
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
@@ -5060,7 +4988,7 @@
         <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
@@ -5089,7 +5017,7 @@
         <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
@@ -5118,7 +5046,7 @@
         <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
@@ -5147,7 +5075,7 @@
         <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
         <v>3</v>
@@ -5176,7 +5104,7 @@
         <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
@@ -5205,7 +5133,7 @@
         <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
@@ -5234,7 +5162,7 @@
         <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
@@ -5263,7 +5191,7 @@
         <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
@@ -5292,7 +5220,7 @@
         <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
@@ -5321,7 +5249,7 @@
         <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
@@ -5350,7 +5278,7 @@
         <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H63" t="s">
         <v>3</v>
@@ -5379,7 +5307,7 @@
         <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
@@ -5408,7 +5336,7 @@
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
@@ -5437,7 +5365,7 @@
         <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -5466,7 +5394,7 @@
         <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
         <v>3</v>
@@ -5495,7 +5423,7 @@
         <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H68" t="s">
         <v>3</v>
@@ -5524,7 +5452,7 @@
         <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
         <v>3</v>
@@ -5553,7 +5481,7 @@
         <v>68</v>
       </c>
       <c r="G70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H70" t="s">
         <v>3</v>
@@ -5582,7 +5510,7 @@
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" t="s">
         <v>3</v>
@@ -5611,7 +5539,7 @@
         <v>70</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
         <v>3</v>
@@ -5640,7 +5568,7 @@
         <v>71</v>
       </c>
       <c r="G73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H73" t="s">
         <v>3</v>
@@ -5669,7 +5597,7 @@
         <v>72</v>
       </c>
       <c r="G74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
@@ -5709,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5721,10 +5649,10 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5736,10 +5664,10 @@
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -5748,10 +5676,10 @@
         <v>5000</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -5760,10 +5688,10 @@
         <v>5000</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -5772,10 +5700,10 @@
         <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -5784,10 +5712,10 @@
         <v>5000</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -5796,10 +5724,10 @@
         <v>5000</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -5808,10 +5736,10 @@
         <v>5000</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -5820,10 +5748,10 @@
         <v>5000</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -5832,10 +5760,10 @@
         <v>5000</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -5844,10 +5772,10 @@
         <v>5000</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -5856,10 +5784,10 @@
         <v>5000</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -5868,10 +5796,10 @@
         <v>5000</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5808,10 @@
         <v>5000</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -5892,10 +5820,10 @@
         <v>5000</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -5904,10 +5832,10 @@
         <v>5000</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -5916,10 +5844,10 @@
         <v>5000</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -5928,10 +5856,10 @@
         <v>5000</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -5940,10 +5868,10 @@
         <v>5000</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -5952,10 +5880,10 @@
         <v>5000</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -5964,10 +5892,10 @@
         <v>5000</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -5976,10 +5904,10 @@
         <v>5000</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -5988,10 +5916,10 @@
         <v>5000</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -6000,10 +5928,10 @@
         <v>5000</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -6012,10 +5940,10 @@
         <v>5000</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -6024,10 +5952,10 @@
         <v>5000</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -6036,10 +5964,10 @@
         <v>5000</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -6048,10 +5976,10 @@
         <v>5000</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -6060,10 +5988,10 @@
         <v>5000</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -6072,10 +6000,10 @@
         <v>5000</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -6084,10 +6012,10 @@
         <v>5000</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -6096,10 +6024,10 @@
         <v>5000</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -6108,10 +6036,10 @@
         <v>5000</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -6120,10 +6048,10 @@
         <v>5000</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -6132,10 +6060,10 @@
         <v>5000</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -6144,10 +6072,10 @@
         <v>5000</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -6156,10 +6084,10 @@
         <v>5000</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -6168,10 +6096,10 @@
         <v>5000</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -6180,10 +6108,10 @@
         <v>5000</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -6192,10 +6120,10 @@
         <v>5000</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -6204,10 +6132,10 @@
         <v>5000</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -6216,10 +6144,10 @@
         <v>5000</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -6228,10 +6156,10 @@
         <v>5000</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -6240,10 +6168,10 @@
         <v>5000</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -6252,10 +6180,10 @@
         <v>5000</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -6264,10 +6192,10 @@
         <v>5000</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -6276,10 +6204,10 @@
         <v>5000</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -6288,10 +6216,10 @@
         <v>5000</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -6300,10 +6228,10 @@
         <v>5000</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6240,10 @@
         <v>5000</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -6324,10 +6252,10 @@
         <v>5000</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -6336,10 +6264,10 @@
         <v>5000</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -6348,10 +6276,10 @@
         <v>5000</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -6360,10 +6288,10 @@
         <v>5000</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -6372,10 +6300,10 @@
         <v>5000</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -6384,10 +6312,10 @@
         <v>5000</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -6396,10 +6324,10 @@
         <v>5000</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -6408,10 +6336,10 @@
         <v>5000</v>
       </c>
       <c r="C58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -6420,10 +6348,10 @@
         <v>5000</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -6432,10 +6360,10 @@
         <v>5000</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6372,10 @@
         <v>5000</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -6456,10 +6384,10 @@
         <v>5000</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -6468,10 +6396,10 @@
         <v>5000</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -6480,10 +6408,10 @@
         <v>5000</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -6492,10 +6420,10 @@
         <v>5000</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -6504,10 +6432,10 @@
         <v>5000</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -6516,10 +6444,10 @@
         <v>5000</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -6528,10 +6456,10 @@
         <v>5000</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -6540,10 +6468,10 @@
         <v>5000</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -6552,10 +6480,10 @@
         <v>5000</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -6564,10 +6492,10 @@
         <v>5000</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -6576,10 +6504,10 @@
         <v>5000</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -6588,10 +6516,10 @@
         <v>5000</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6604,8 +6532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6615,10 +6543,10 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -6632,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -6643,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -6654,7 +6582,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -6665,7 +6593,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -6676,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -6687,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -6698,7 +6626,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -6709,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -6720,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -6731,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -6742,7 +6670,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -6753,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -6764,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -6775,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -6786,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -6797,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -6808,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -6819,7 +6747,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -6830,7 +6758,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -6841,7 +6769,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -6852,7 +6780,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -6863,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -6874,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -6885,7 +6813,7 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -6896,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -6907,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -6918,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -6929,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -6940,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -6951,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -6962,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -6973,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -6984,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -6995,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -7006,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -7017,7 +6945,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -7028,7 +6956,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -7039,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -7050,7 +6978,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -7061,7 +6989,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -7072,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -7083,7 +7011,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -7094,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -7105,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -7116,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -7127,7 +7055,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -7138,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -7149,7 +7077,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -7160,7 +7088,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -7171,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -7182,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -7193,7 +7121,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -7204,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -7215,7 +7143,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -7226,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -7237,7 +7165,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -7248,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -7259,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -7270,7 +7198,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -7281,7 +7209,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -7292,7 +7220,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -7303,7 +7231,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -7314,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -7325,7 +7253,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -7336,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -7347,7 +7275,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -7358,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -7369,7 +7297,7 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -7380,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -7391,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -7402,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -7413,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -7426,8 +7354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,10 +7365,10 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -7448,866 +7376,866 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2">
-        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
-        <v>205</v>
+        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>205</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>195</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,Supuestos_Precios!$C$6))</f>
+        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="WWHT",Supuestos_Precios!$C$5,Supuestos_Precios!$C$6)))</f>
         <v>300</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8333,7 +8261,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8271,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -8351,872 +8279,872 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
-        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="WWHT",Supuestos_Precios!$C$5,IF(C2="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="WWHT",Supuestos_Precios!$C$5,IF(C3="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="WWHT",Supuestos_Precios!$C$5,IF(C4="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="WWHT",Supuestos_Precios!$C$5,IF(C5="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="WWHT",Supuestos_Precios!$C$5,IF(C6="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="WWHT",Supuestos_Precios!$C$5,IF(C7="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="WWHT",Supuestos_Precios!$C$5,IF(C8="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="WWHT",Supuestos_Precios!$C$5,IF(C9="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="WWHT",Supuestos_Precios!$C$5,IF(C10="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="WWHT",Supuestos_Precios!$C$5,IF(C11="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="WWHT",Supuestos_Precios!$C$5,IF(C12="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="WWHT",Supuestos_Precios!$C$5,IF(C13="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="WWHT",Supuestos_Precios!$C$5,IF(C14="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="WWHT",Supuestos_Precios!$C$5,IF(C15="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="WWHT",Supuestos_Precios!$C$5,IF(C16="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="WWHT",Supuestos_Precios!$C$5,IF(C17="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="WWHT",Supuestos_Precios!$C$5,IF(C18="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="WWHT",Supuestos_Precios!$C$5,IF(C19="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="WWHT",Supuestos_Precios!$C$5,IF(C20="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="WWHT",Supuestos_Precios!$C$5,IF(C21="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="WWHT",Supuestos_Precios!$C$5,IF(C22="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="WWHT",Supuestos_Precios!$C$5,IF(C23="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="WWHT",Supuestos_Precios!$C$5,IF(C24="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="WWHT",Supuestos_Precios!$C$5,IF(C25="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="WWHT",Supuestos_Precios!$C$5,IF(C26="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="WWHT",Supuestos_Precios!$C$5,IF(C27="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="WWHT",Supuestos_Precios!$C$5,IF(C28="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="WWHT",Supuestos_Precios!$C$5,IF(C29="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="WWHT",Supuestos_Precios!$C$5,IF(C30="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="WWHT",Supuestos_Precios!$C$5,IF(C31="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="WWHT",Supuestos_Precios!$C$5,IF(C32="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="WWHT",Supuestos_Precios!$C$5,IF(C33="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="WWHT",Supuestos_Precios!$C$5,IF(C34="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="WWHT",Supuestos_Precios!$C$5,IF(C35="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="WWHT",Supuestos_Precios!$C$5,IF(C36="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="WWHT",Supuestos_Precios!$C$5,IF(C37="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="WWHT",Supuestos_Precios!$C$5,IF(C38="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="WWHT",Supuestos_Precios!$C$5,IF(C39="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="WWHT",Supuestos_Precios!$C$5,IF(C40="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="WWHT",Supuestos_Precios!$C$5,IF(C41="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="WWHT",Supuestos_Precios!$C$5,IF(C42="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="WWHT",Supuestos_Precios!$C$5,IF(C43="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="WWHT",Supuestos_Precios!$C$5,IF(C44="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="WWHT",Supuestos_Precios!$C$5,IF(C45="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="WWHT",Supuestos_Precios!$C$5,IF(C46="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="WWHT",Supuestos_Precios!$C$5,IF(C47="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="WWHT",Supuestos_Precios!$C$5,IF(C48="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="WWHT",Supuestos_Precios!$C$5,IF(C49="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="WWHT",Supuestos_Precios!$C$5,IF(C50="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="WWHT",Supuestos_Precios!$C$5,IF(C51="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="WWHT",Supuestos_Precios!$C$5,IF(C52="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="WWHT",Supuestos_Precios!$C$5,IF(C53="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="WWHT",Supuestos_Precios!$C$5,IF(C54="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="WWHT",Supuestos_Precios!$C$5,IF(C55="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="WWHT",Supuestos_Precios!$C$5,IF(C56="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="WWHT",Supuestos_Precios!$C$5,IF(C57="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="WWHT",Supuestos_Precios!$C$5,IF(C58="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="WWHT",Supuestos_Precios!$C$5,IF(C59="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="WWHT",Supuestos_Precios!$C$5,IF(C60="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="WWHT",Supuestos_Precios!$C$5,IF(C61="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="WWHT",Supuestos_Precios!$C$5,IF(C62="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="WWHT",Supuestos_Precios!$C$5,IF(C63="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="WWHT",Supuestos_Precios!$C$5,IF(C64="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="WWHT",Supuestos_Precios!$C$5,IF(C65="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="WWHT",Supuestos_Precios!$C$5,IF(C66="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="WWHT",Supuestos_Precios!$C$5,IF(C67="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="WWHT",Supuestos_Precios!$C$5,IF(C68="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="WWHT",Supuestos_Precios!$C$5,IF(C69="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="WWHT",Supuestos_Precios!$C$5,IF(C70="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="WWHT",Supuestos_Precios!$C$5,IF(C71="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="WWHT",Supuestos_Precios!$C$5,IF(C72="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="WWHT",Supuestos_Precios!$C$5,IF(C73="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -9230,7 +9158,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P2" sqref="L2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9240,7 +9168,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -9248,872 +9176,872 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
-        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="WWHT",Supuestos_Precios!$C$5,IF(C2="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="WWHT",Supuestos_Precios!$C$5,IF(C3="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="WWHT",Supuestos_Precios!$C$5,IF(C4="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="WWHT",Supuestos_Precios!$C$5,IF(C5="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="WWHT",Supuestos_Precios!$C$5,IF(C6="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="WWHT",Supuestos_Precios!$C$5,IF(C7="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="WWHT",Supuestos_Precios!$C$5,IF(C8="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="WWHT",Supuestos_Precios!$C$5,IF(C9="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="WWHT",Supuestos_Precios!$C$5,IF(C10="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="WWHT",Supuestos_Precios!$C$5,IF(C11="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="WWHT",Supuestos_Precios!$C$5,IF(C12="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="WWHT",Supuestos_Precios!$C$5,IF(C13="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="WWHT",Supuestos_Precios!$C$5,IF(C14="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="WWHT",Supuestos_Precios!$C$5,IF(C15="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="WWHT",Supuestos_Precios!$C$5,IF(C16="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="WWHT",Supuestos_Precios!$C$5,IF(C17="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="WWHT",Supuestos_Precios!$C$5,IF(C18="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="WWHT",Supuestos_Precios!$C$5,IF(C19="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="WWHT",Supuestos_Precios!$C$5,IF(C20="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="WWHT",Supuestos_Precios!$C$5,IF(C21="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="WWHT",Supuestos_Precios!$C$5,IF(C22="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="WWHT",Supuestos_Precios!$C$5,IF(C23="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="WWHT",Supuestos_Precios!$C$5,IF(C24="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="WWHT",Supuestos_Precios!$C$5,IF(C25="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="WWHT",Supuestos_Precios!$C$5,IF(C26="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="WWHT",Supuestos_Precios!$C$5,IF(C27="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="WWHT",Supuestos_Precios!$C$5,IF(C28="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="WWHT",Supuestos_Precios!$C$5,IF(C29="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="WWHT",Supuestos_Precios!$C$5,IF(C30="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="WWHT",Supuestos_Precios!$C$5,IF(C31="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="WWHT",Supuestos_Precios!$C$5,IF(C32="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="WWHT",Supuestos_Precios!$C$5,IF(C33="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="WWHT",Supuestos_Precios!$C$5,IF(C34="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="WWHT",Supuestos_Precios!$C$5,IF(C35="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="WWHT",Supuestos_Precios!$C$5,IF(C36="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="WWHT",Supuestos_Precios!$C$5,IF(C37="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="WWHT",Supuestos_Precios!$C$5,IF(C38="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="WWHT",Supuestos_Precios!$C$5,IF(C39="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="WWHT",Supuestos_Precios!$C$5,IF(C40="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>205</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="WWHT",Supuestos_Precios!$C$5,IF(C41="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="WWHT",Supuestos_Precios!$C$5,IF(C42="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="WWHT",Supuestos_Precios!$C$5,IF(C43="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="WWHT",Supuestos_Precios!$C$5,IF(C44="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="WWHT",Supuestos_Precios!$C$5,IF(C45="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="WWHT",Supuestos_Precios!$C$5,IF(C46="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="WWHT",Supuestos_Precios!$C$5,IF(C47="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="WWHT",Supuestos_Precios!$C$5,IF(C48="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="WWHT",Supuestos_Precios!$C$5,IF(C49="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="WWHT",Supuestos_Precios!$C$5,IF(C50="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="WWHT",Supuestos_Precios!$C$5,IF(C51="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="WWHT",Supuestos_Precios!$C$5,IF(C52="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="WWHT",Supuestos_Precios!$C$5,IF(C53="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="WWHT",Supuestos_Precios!$C$5,IF(C54="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="WWHT",Supuestos_Precios!$C$5,IF(C55="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="WWHT",Supuestos_Precios!$C$5,IF(C56="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="WWHT",Supuestos_Precios!$C$5,IF(C57="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="WWHT",Supuestos_Precios!$C$5,IF(C58="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="WWHT",Supuestos_Precios!$C$5,IF(C59="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="WWHT",Supuestos_Precios!$C$5,IF(C60="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="WWHT",Supuestos_Precios!$C$5,IF(C61="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="WWHT",Supuestos_Precios!$C$5,IF(C62="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="WWHT",Supuestos_Precios!$C$5,IF(C63="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="WWHT",Supuestos_Precios!$C$5,IF(C64="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="WWHT",Supuestos_Precios!$C$5,IF(C65="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="WWHT",Supuestos_Precios!$C$5,IF(C66="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="WWHT",Supuestos_Precios!$C$5,IF(C67="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="WWHT",Supuestos_Precios!$C$5,IF(C68="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="WWHT",Supuestos_Precios!$C$5,IF(C69="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="WWHT",Supuestos_Precios!$C$5,IF(C70="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="WWHT",Supuestos_Precios!$C$5,IF(C71="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
-        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="WWHT",Supuestos_Precios!$C$5,IF(C72="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6)))</f>
+        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="WWHT",Supuestos_Precios!$C$5,IF(C73="PAST",Supuestos_Precios!$C$14,Supuestos_Precios!$C$6))))</f>
         <v>5000</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10127,7 +10055,7 @@
   <dimension ref="B1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,7 +10065,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10152,10 +10080,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -10167,10 +10095,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -10182,7 +10110,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -10194,7 +10122,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -10206,7 +10134,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -10218,7 +10146,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -10230,7 +10158,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -10242,7 +10170,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -10254,7 +10182,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -10266,7 +10194,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -10278,7 +10206,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -10290,7 +10218,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -10302,7 +10230,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -10314,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -10326,7 +10254,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -10338,7 +10266,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -10350,7 +10278,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -10362,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -10374,7 +10302,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -10386,7 +10314,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -10398,7 +10326,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -10410,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -10422,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -10434,7 +10362,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -10446,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -10458,7 +10386,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -10470,7 +10398,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -10482,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -10494,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -10506,7 +10434,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -10518,7 +10446,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -10530,7 +10458,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -10542,7 +10470,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -10554,7 +10482,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -10566,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -10578,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
@@ -10590,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -10602,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -10614,7 +10542,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -10626,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -10638,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -10650,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -10662,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -10674,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -10686,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -10698,7 +10626,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -10710,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -10722,7 +10650,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -10734,7 +10662,7 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -10746,7 +10674,7 @@
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -10758,7 +10686,7 @@
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -10770,7 +10698,7 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -10782,7 +10710,7 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -10794,7 +10722,7 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -10806,7 +10734,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -10818,7 +10746,7 @@
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -10830,7 +10758,7 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -10842,7 +10770,7 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -10854,7 +10782,7 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -10866,7 +10794,7 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -10878,7 +10806,7 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -10890,7 +10818,7 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -10902,7 +10830,7 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -10914,7 +10842,7 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -10926,7 +10854,7 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -10938,7 +10866,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -10950,7 +10878,7 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -10962,7 +10890,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -10974,7 +10902,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -10986,7 +10914,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -10998,7 +10926,7 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -11010,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -11023,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11034,7 +10962,7 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -11042,797 +10970,869 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0</v>
+        <f>IF(C2="SOYB",Supuestos_Precios!$C$8,IF(C2="OATS",Supuestos_Precios!$C$7,IF(C2="PAST",Supuestos_Precios!$C$14,IF(C2="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>0</v>
+        <f>IF(C3="SOYB",Supuestos_Precios!$C$8,IF(C3="OATS",Supuestos_Precios!$C$7,IF(C3="PAST",Supuestos_Precios!$C$14,IF(C3="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>0</v>
+        <f>IF(C4="SOYB",Supuestos_Precios!$C$8,IF(C4="OATS",Supuestos_Precios!$C$7,IF(C4="PAST",Supuestos_Precios!$C$14,IF(C4="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>0</v>
+        <f>IF(C5="SOYB",Supuestos_Precios!$C$8,IF(C5="OATS",Supuestos_Precios!$C$7,IF(C5="PAST",Supuestos_Precios!$C$14,IF(C5="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>0</v>
+        <f>IF(C6="SOYB",Supuestos_Precios!$C$8,IF(C6="OATS",Supuestos_Precios!$C$7,IF(C6="PAST",Supuestos_Precios!$C$14,IF(C6="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>0</v>
+        <f>IF(C7="SOYB",Supuestos_Precios!$C$8,IF(C7="OATS",Supuestos_Precios!$C$7,IF(C7="PAST",Supuestos_Precios!$C$14,IF(C7="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>0</v>
+        <f>IF(C8="SOYB",Supuestos_Precios!$C$8,IF(C8="OATS",Supuestos_Precios!$C$7,IF(C8="PAST",Supuestos_Precios!$C$14,IF(C8="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>0</v>
+        <f>IF(C9="SOYB",Supuestos_Precios!$C$8,IF(C9="OATS",Supuestos_Precios!$C$7,IF(C9="PAST",Supuestos_Precios!$C$14,IF(C9="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>0</v>
+        <f>IF(C10="SOYB",Supuestos_Precios!$C$8,IF(C10="OATS",Supuestos_Precios!$C$7,IF(C10="PAST",Supuestos_Precios!$C$14,IF(C10="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>0</v>
+        <f>IF(C11="SOYB",Supuestos_Precios!$C$8,IF(C11="OATS",Supuestos_Precios!$C$7,IF(C11="PAST",Supuestos_Precios!$C$14,IF(C11="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>0</v>
+        <f>IF(C12="SOYB",Supuestos_Precios!$C$8,IF(C12="OATS",Supuestos_Precios!$C$7,IF(C12="PAST",Supuestos_Precios!$C$14,IF(C12="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>0</v>
+        <f>IF(C13="SOYB",Supuestos_Precios!$C$8,IF(C13="OATS",Supuestos_Precios!$C$7,IF(C13="PAST",Supuestos_Precios!$C$14,IF(C13="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>0</v>
+        <f>IF(C14="SOYB",Supuestos_Precios!$C$8,IF(C14="OATS",Supuestos_Precios!$C$7,IF(C14="PAST",Supuestos_Precios!$C$14,IF(C14="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>0</v>
+        <f>IF(C15="SOYB",Supuestos_Precios!$C$8,IF(C15="OATS",Supuestos_Precios!$C$7,IF(C15="PAST",Supuestos_Precios!$C$14,IF(C15="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>0</v>
+        <f>IF(C16="SOYB",Supuestos_Precios!$C$8,IF(C16="OATS",Supuestos_Precios!$C$7,IF(C16="PAST",Supuestos_Precios!$C$14,IF(C16="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>0</v>
+        <f>IF(C17="SOYB",Supuestos_Precios!$C$8,IF(C17="OATS",Supuestos_Precios!$C$7,IF(C17="PAST",Supuestos_Precios!$C$14,IF(C17="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>0</v>
+        <f>IF(C18="SOYB",Supuestos_Precios!$C$8,IF(C18="OATS",Supuestos_Precios!$C$7,IF(C18="PAST",Supuestos_Precios!$C$14,IF(C18="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>0</v>
+        <f>IF(C19="SOYB",Supuestos_Precios!$C$8,IF(C19="OATS",Supuestos_Precios!$C$7,IF(C19="PAST",Supuestos_Precios!$C$14,IF(C19="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0</v>
+        <f>IF(C20="SOYB",Supuestos_Precios!$C$8,IF(C20="OATS",Supuestos_Precios!$C$7,IF(C20="PAST",Supuestos_Precios!$C$14,IF(C20="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0</v>
+        <f>IF(C21="SOYB",Supuestos_Precios!$C$8,IF(C21="OATS",Supuestos_Precios!$C$7,IF(C21="PAST",Supuestos_Precios!$C$14,IF(C21="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0</v>
+        <f>IF(C22="SOYB",Supuestos_Precios!$C$8,IF(C22="OATS",Supuestos_Precios!$C$7,IF(C22="PAST",Supuestos_Precios!$C$14,IF(C22="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>0</v>
+        <f>IF(C23="SOYB",Supuestos_Precios!$C$8,IF(C23="OATS",Supuestos_Precios!$C$7,IF(C23="PAST",Supuestos_Precios!$C$14,IF(C23="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0</v>
+        <f>IF(C24="SOYB",Supuestos_Precios!$C$8,IF(C24="OATS",Supuestos_Precios!$C$7,IF(C24="PAST",Supuestos_Precios!$C$14,IF(C24="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0</v>
+        <f>IF(C25="SOYB",Supuestos_Precios!$C$8,IF(C25="OATS",Supuestos_Precios!$C$7,IF(C25="PAST",Supuestos_Precios!$C$14,IF(C25="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>0</v>
+        <f>IF(C26="SOYB",Supuestos_Precios!$C$8,IF(C26="OATS",Supuestos_Precios!$C$7,IF(C26="PAST",Supuestos_Precios!$C$14,IF(C26="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>0</v>
+        <f>IF(C27="SOYB",Supuestos_Precios!$C$8,IF(C27="OATS",Supuestos_Precios!$C$7,IF(C27="PAST",Supuestos_Precios!$C$14,IF(C27="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>0</v>
+        <f>IF(C28="SOYB",Supuestos_Precios!$C$8,IF(C28="OATS",Supuestos_Precios!$C$7,IF(C28="PAST",Supuestos_Precios!$C$14,IF(C28="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>0</v>
+        <f>IF(C29="SOYB",Supuestos_Precios!$C$8,IF(C29="OATS",Supuestos_Precios!$C$7,IF(C29="PAST",Supuestos_Precios!$C$14,IF(C29="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0</v>
+        <f>IF(C30="SOYB",Supuestos_Precios!$C$8,IF(C30="OATS",Supuestos_Precios!$C$7,IF(C30="PAST",Supuestos_Precios!$C$14,IF(C30="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>0</v>
+        <f>IF(C31="SOYB",Supuestos_Precios!$C$8,IF(C31="OATS",Supuestos_Precios!$C$7,IF(C31="PAST",Supuestos_Precios!$C$14,IF(C31="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>0</v>
+        <f>IF(C32="SOYB",Supuestos_Precios!$C$8,IF(C32="OATS",Supuestos_Precios!$C$7,IF(C32="PAST",Supuestos_Precios!$C$14,IF(C32="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>0</v>
+        <f>IF(C33="SOYB",Supuestos_Precios!$C$8,IF(C33="OATS",Supuestos_Precios!$C$7,IF(C33="PAST",Supuestos_Precios!$C$14,IF(C33="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>0</v>
+        <f>IF(C34="SOYB",Supuestos_Precios!$C$8,IF(C34="OATS",Supuestos_Precios!$C$7,IF(C34="PAST",Supuestos_Precios!$C$14,IF(C34="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>195</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>0</v>
+        <f>IF(C35="SOYB",Supuestos_Precios!$C$8,IF(C35="OATS",Supuestos_Precios!$C$7,IF(C35="PAST",Supuestos_Precios!$C$14,IF(C35="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>0</v>
+        <f>IF(C36="SOYB",Supuestos_Precios!$C$8,IF(C36="OATS",Supuestos_Precios!$C$7,IF(C36="PAST",Supuestos_Precios!$C$14,IF(C36="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>0</v>
+        <f>IF(C37="SOYB",Supuestos_Precios!$C$8,IF(C37="OATS",Supuestos_Precios!$C$7,IF(C37="PAST",Supuestos_Precios!$C$14,IF(C37="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>0</v>
+        <f>IF(C38="SOYB",Supuestos_Precios!$C$8,IF(C38="OATS",Supuestos_Precios!$C$7,IF(C38="PAST",Supuestos_Precios!$C$14,IF(C38="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>0</v>
+        <f>IF(C39="SOYB",Supuestos_Precios!$C$8,IF(C39="OATS",Supuestos_Precios!$C$7,IF(C39="PAST",Supuestos_Precios!$C$14,IF(C39="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>0</v>
+        <f>IF(C40="SOYB",Supuestos_Precios!$C$8,IF(C40="OATS",Supuestos_Precios!$C$7,IF(C40="PAST",Supuestos_Precios!$C$14,IF(C40="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>0</v>
+        <f>IF(C41="SOYB",Supuestos_Precios!$C$8,IF(C41="OATS",Supuestos_Precios!$C$7,IF(C41="PAST",Supuestos_Precios!$C$14,IF(C41="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>0</v>
+        <f>IF(C42="SOYB",Supuestos_Precios!$C$8,IF(C42="OATS",Supuestos_Precios!$C$7,IF(C42="PAST",Supuestos_Precios!$C$14,IF(C42="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>0</v>
+        <f>IF(C43="SOYB",Supuestos_Precios!$C$8,IF(C43="OATS",Supuestos_Precios!$C$7,IF(C43="PAST",Supuestos_Precios!$C$14,IF(C43="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>0</v>
+        <f>IF(C44="SOYB",Supuestos_Precios!$C$8,IF(C44="OATS",Supuestos_Precios!$C$7,IF(C44="PAST",Supuestos_Precios!$C$14,IF(C44="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>0</v>
+        <f>IF(C45="SOYB",Supuestos_Precios!$C$8,IF(C45="OATS",Supuestos_Precios!$C$7,IF(C45="PAST",Supuestos_Precios!$C$14,IF(C45="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>0</v>
+        <f>IF(C46="SOYB",Supuestos_Precios!$C$8,IF(C46="OATS",Supuestos_Precios!$C$7,IF(C46="PAST",Supuestos_Precios!$C$14,IF(C46="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>0</v>
+        <f>IF(C47="SOYB",Supuestos_Precios!$C$8,IF(C47="OATS",Supuestos_Precios!$C$7,IF(C47="PAST",Supuestos_Precios!$C$14,IF(C47="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>0</v>
+        <f>IF(C48="SOYB",Supuestos_Precios!$C$8,IF(C48="OATS",Supuestos_Precios!$C$7,IF(C48="PAST",Supuestos_Precios!$C$14,IF(C48="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>0</v>
+        <f>IF(C49="SOYB",Supuestos_Precios!$C$8,IF(C49="OATS",Supuestos_Precios!$C$7,IF(C49="PAST",Supuestos_Precios!$C$14,IF(C49="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>0</v>
+        <f>IF(C50="SOYB",Supuestos_Precios!$C$8,IF(C50="OATS",Supuestos_Precios!$C$7,IF(C50="PAST",Supuestos_Precios!$C$14,IF(C50="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0</v>
+        <f>IF(C51="SOYB",Supuestos_Precios!$C$8,IF(C51="OATS",Supuestos_Precios!$C$7,IF(C51="PAST",Supuestos_Precios!$C$14,IF(C51="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>0</v>
+        <f>IF(C52="SOYB",Supuestos_Precios!$C$8,IF(C52="OATS",Supuestos_Precios!$C$7,IF(C52="PAST",Supuestos_Precios!$C$14,IF(C52="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0</v>
+        <f>IF(C53="SOYB",Supuestos_Precios!$C$8,IF(C53="OATS",Supuestos_Precios!$C$7,IF(C53="PAST",Supuestos_Precios!$C$14,IF(C53="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0</v>
+        <f>IF(C54="SOYB",Supuestos_Precios!$C$8,IF(C54="OATS",Supuestos_Precios!$C$7,IF(C54="PAST",Supuestos_Precios!$C$14,IF(C54="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>0</v>
+        <f>IF(C55="SOYB",Supuestos_Precios!$C$8,IF(C55="OATS",Supuestos_Precios!$C$7,IF(C55="PAST",Supuestos_Precios!$C$14,IF(C55="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>0</v>
+        <f>IF(C56="SOYB",Supuestos_Precios!$C$8,IF(C56="OATS",Supuestos_Precios!$C$7,IF(C56="PAST",Supuestos_Precios!$C$14,IF(C56="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>0</v>
+        <f>IF(C57="SOYB",Supuestos_Precios!$C$8,IF(C57="OATS",Supuestos_Precios!$C$7,IF(C57="PAST",Supuestos_Precios!$C$14,IF(C57="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>0</v>
+        <f>IF(C58="SOYB",Supuestos_Precios!$C$8,IF(C58="OATS",Supuestos_Precios!$C$7,IF(C58="PAST",Supuestos_Precios!$C$14,IF(C58="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>0</v>
+        <f>IF(C59="SOYB",Supuestos_Precios!$C$8,IF(C59="OATS",Supuestos_Precios!$C$7,IF(C59="PAST",Supuestos_Precios!$C$14,IF(C59="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>0</v>
+        <f>IF(C60="SOYB",Supuestos_Precios!$C$8,IF(C60="OATS",Supuestos_Precios!$C$7,IF(C60="PAST",Supuestos_Precios!$C$14,IF(C60="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>0</v>
+        <f>IF(C61="SOYB",Supuestos_Precios!$C$8,IF(C61="OATS",Supuestos_Precios!$C$7,IF(C61="PAST",Supuestos_Precios!$C$14,IF(C61="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>0</v>
+        <f>IF(C62="SOYB",Supuestos_Precios!$C$8,IF(C62="OATS",Supuestos_Precios!$C$7,IF(C62="PAST",Supuestos_Precios!$C$14,IF(C62="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>0</v>
+        <f>IF(C63="SOYB",Supuestos_Precios!$C$8,IF(C63="OATS",Supuestos_Precios!$C$7,IF(C63="PAST",Supuestos_Precios!$C$14,IF(C63="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>0</v>
+        <f>IF(C64="SOYB",Supuestos_Precios!$C$8,IF(C64="OATS",Supuestos_Precios!$C$7,IF(C64="PAST",Supuestos_Precios!$C$14,IF(C64="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>0</v>
+        <f>IF(C65="SOYB",Supuestos_Precios!$C$8,IF(C65="OATS",Supuestos_Precios!$C$7,IF(C65="PAST",Supuestos_Precios!$C$14,IF(C65="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>0</v>
+        <f>IF(C66="SOYB",Supuestos_Precios!$C$8,IF(C66="OATS",Supuestos_Precios!$C$7,IF(C66="PAST",Supuestos_Precios!$C$14,IF(C66="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>0</v>
+        <f>IF(C67="SOYB",Supuestos_Precios!$C$8,IF(C67="OATS",Supuestos_Precios!$C$7,IF(C67="PAST",Supuestos_Precios!$C$14,IF(C67="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>0</v>
+        <f>IF(C68="SOYB",Supuestos_Precios!$C$8,IF(C68="OATS",Supuestos_Precios!$C$7,IF(C68="PAST",Supuestos_Precios!$C$14,IF(C68="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>0</v>
+        <f>IF(C69="SOYB",Supuestos_Precios!$C$8,IF(C69="OATS",Supuestos_Precios!$C$7,IF(C69="PAST",Supuestos_Precios!$C$14,IF(C69="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>0</v>
+        <f>IF(C70="SOYB",Supuestos_Precios!$C$8,IF(C70="OATS",Supuestos_Precios!$C$7,IF(C70="PAST",Supuestos_Precios!$C$14,IF(C70="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>0</v>
+        <f>IF(C71="SOYB",Supuestos_Precios!$C$8,IF(C71="OATS",Supuestos_Precios!$C$7,IF(C71="PAST",Supuestos_Precios!$C$14,IF(C71="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>0</v>
+        <f>IF(C72="SOYB",Supuestos_Precios!$C$8,IF(C72="OATS",Supuestos_Precios!$C$7,IF(C72="PAST",Supuestos_Precios!$C$14,IF(C72="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>0</v>
+        <f>IF(C73="SOYB",Supuestos_Precios!$C$8,IF(C73="OATS",Supuestos_Precios!$C$7,IF(C73="PAST",Supuestos_Precios!$C$14,IF(C73="SGHY",Supuestos_Precios!$C$9,Supuestos_Precios!$C$6))))</f>
+        <v>5000</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
